--- a/fermentation_insights/TRY_results/b_coeff_baselines_percentiles.xlsx
+++ b/fermentation_insights/TRY_results/b_coeff_baselines_percentiles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\repository_clones\fermentation_insights\fermentation_insights\TRY_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8827C75F-C2CC-480D-BEC4-32C95731BB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A06BFF9-B8EE-45EB-8290-0B92F003739B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9250" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,10 +59,10 @@
     <t>glucose</t>
   </si>
   <si>
+    <t>cornstover</t>
+  </si>
+  <si>
     <t>sugarcane</t>
-  </si>
-  <si>
-    <t>cornstover</t>
   </si>
   <si>
     <t>corn</t>
@@ -87,7 +87,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +99,20 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -136,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -145,6 +159,11 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,21 +466,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.90625" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" customWidth="1"/>
+    <col min="3" max="3" width="20.08984375" customWidth="1"/>
     <col min="4" max="6" width="8.7265625" style="3"/>
-    <col min="10" max="10" width="8.7265625" style="3"/>
+    <col min="11" max="11" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,195 +495,195 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.34376206380598362</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.2752535435595071</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.41043574972551911</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.34410486381805289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3">
-        <v>0.29677022290652089</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="D3" s="6">
+        <v>0.30881319280811148</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.21190135488362299</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.36102711771361939</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0.28308727822698709</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.28065317041294702</v>
+      </c>
+      <c r="E4" s="3">
         <v>0.1857279546728349</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F4" s="3">
         <v>0.3765870863170781</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K4" s="3">
         <v>0.27183928506777127</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.2440917404838335</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.17494622656706621</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.30300868167127298</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.2328856701391829</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.3629682288586365</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.30011878353813748</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.42391961155401819</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.36026762496343218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3">
-        <v>0.41658543856451319</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.17984412487279841</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.3529890259883281</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0.25707246526053329</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="D7" s="6">
+        <v>0.32489108095874331</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.23221861975680161</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.37002969891555482</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0.30121221877348592</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.287312513045621</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.21290396910289819</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.34698340365131242</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0.27807928372934559</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.28963655619524159</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.21416848286946599</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.34465303109259959</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0.27215261287487569</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.27694740867954831</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.20329015531105121</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.32832432100085801</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0.2645231822446798</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.28021647514744941</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.27674615588447288</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.39112039422273043</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0.33383719800930423</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" s="3">
+        <v>0.2690201666003435</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.15672852817658539</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.32122450401646541</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.23326217820064041</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
         <v>7</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.34363653635708052</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.2752535435595071</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.41043574972551911</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0.34410486381805289</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D9" s="3">
-        <v>0.43742944998786171</v>
+        <v>0.2675942734961439</v>
       </c>
       <c r="E9" s="3">
-        <v>0.30011878353813748</v>
+        <v>0.19635764568873881</v>
       </c>
       <c r="F9" s="3">
-        <v>0.42391961155401819</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0.36026762496343218</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.31485498477741708</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.25040227549963617</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -676,7 +694,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.34945670799415629</v>
+        <v>0.35006454155936773</v>
       </c>
       <c r="E10" s="3">
         <v>0.30143097130212382</v>
@@ -684,333 +702,333 @@
       <c r="F10" s="3">
         <v>0.388957354038235</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>0.34393221839927512</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+    <row r="11" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.31811968904707749</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.24004371092027901</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.3342208654940495</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0.29009333685473382</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.29499306581844131</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.21290396910289819</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.34698340365131242</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.27807928372934559</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.22417873553799619</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.21669292514773891</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.26555896416782099</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.24339285165675781</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C14" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="3">
-        <v>0.35466398787203263</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="D14" s="3">
+        <v>0.34963142072350639</v>
+      </c>
+      <c r="E14" s="3">
         <v>0.30082856671913633</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F14" s="3">
         <v>0.39381117731223808</v>
       </c>
-      <c r="J11" s="3">
+      <c r="K14" s="3">
         <v>0.34301114589312842</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="15" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.32250427911295509</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.24439435802175941</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.34026614325073118</v>
+      </c>
+      <c r="K15" s="6">
+        <v>0.2970180655936604</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.36098339334173019</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0.30320021250324158</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0.39053713615610691</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0.34514109801130699</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.36348970528188729</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.30285842140290681</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0.39629534292990548</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0.34590232807055632</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.30423522263452363</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.19926861387974981</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0.35246438947011471</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0.27205501308994989</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>6</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.3096852251027653</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.23221861975680161</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0.37002969891555482</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0.30121221877348592</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>10</v>
-      </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="3">
-        <v>0.30899355903580827</v>
+        <v>0.29412652786348048</v>
       </c>
       <c r="E16" s="3">
-        <v>0.24004371092027901</v>
+        <v>0.21416848286946599</v>
       </c>
       <c r="F16" s="3">
-        <v>0.3342208654940495</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0.29009333685473382</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.34465303109259959</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0.27215261287487569</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" s="3">
-        <v>0.31720276157265098</v>
+        <v>0.2242797760756724</v>
       </c>
       <c r="E17" s="3">
-        <v>0.24439435802175941</v>
+        <v>0.21839189296853551</v>
       </c>
       <c r="F17" s="3">
-        <v>0.34026614325073118</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0.2970180655936604</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.26447298159520999</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0.2451383732842366</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
       </c>
       <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.34338511129324761</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.29462190272588928</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.37828381310383852</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0.33424401665498571</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.30298273750697852</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.20864959587718401</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.30953217534469257</v>
+      </c>
+      <c r="K19" s="6">
+        <v>0.26125426966006099</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="3">
-        <v>0.31443165375234439</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0.241699137764016</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0.32175922974985721</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0.28598089721981129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0.32266803051092741</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0.28657629399342188</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0.38957061369106333</v>
-      </c>
-      <c r="J19" s="3">
-        <v>0.34210430048176438</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
       <c r="D20" s="3">
-        <v>0.2409252247956469</v>
+        <v>0.2477009923377067</v>
       </c>
       <c r="E20" s="3">
-        <v>0.17494622656706621</v>
+        <v>0.17091802383307089</v>
       </c>
       <c r="F20" s="3">
-        <v>0.30300868167127298</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0.2328856701391829</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.28950108765158372</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0.2293288105804632</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="3">
-        <v>0.34296367142347778</v>
+        <v>0.2177321096092929</v>
       </c>
       <c r="E21" s="3">
-        <v>0.19635764624296689</v>
+        <v>0.15785355636369519</v>
       </c>
       <c r="F21" s="3">
-        <v>0.31485498692152519</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0.25040227608322818</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.21191472329987621</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0.18717278693608269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D22" s="3">
-        <v>0.25093608875952961</v>
+        <v>0.34405170180958411</v>
       </c>
       <c r="E22" s="3">
-        <v>0.21669292514773891</v>
+        <v>0.29487965007199829</v>
       </c>
       <c r="F22" s="3">
-        <v>0.26555896416782099</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0.24339285165675781</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+        <v>0.37918500088023221</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0.33508392411109461</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0.25225656547386838</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0.21839189296853551</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0.26447298159520999</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0.2451383732842366</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.31069757092525552</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.21465896677275539</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0.30006342976735612</v>
+      </c>
+      <c r="K23" s="6">
+        <v>0.26192520614616338</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24" s="3">
-        <v>0.25244574407776998</v>
+        <v>0.24629471362315161</v>
       </c>
       <c r="E24" s="3">
-        <v>0.26048801809419148</v>
+        <v>0.16569998809425679</v>
       </c>
       <c r="F24" s="3">
-        <v>0.30612372049678832</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0.28652938617195189</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.28828454484232652</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0.22655368622794861</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1021,22 +1039,19 @@
         <v>10</v>
       </c>
       <c r="D25" s="3">
-        <v>0.25477011833652369</v>
+        <v>0.2184542461338978</v>
       </c>
       <c r="E25" s="3">
-        <v>0.20944389124874299</v>
+        <v>0.169096824902919</v>
       </c>
       <c r="F25" s="3">
-        <v>0.25655772550226608</v>
-      </c>
-      <c r="J25" s="3">
-        <v>0.23726958508019941</v>
+        <v>0.2232289637326845</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0.19794458751722749</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G31">
-    <sortCondition descending="1" ref="C1:C31"/>
-  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/fermentation_insights/TRY_results/b_coeff_baselines_percentiles.xlsx
+++ b/fermentation_insights/TRY_results/b_coeff_baselines_percentiles.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="16">
   <si>
     <t>product</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>TAL</t>
+  </si>
+  <si>
+    <t>TAL_SA</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>HP_neutral</t>
+  </si>
+  <si>
+    <t>HP_hexanol</t>
+  </si>
+  <si>
+    <t>HP_neutral_hexanol</t>
   </si>
   <si>
     <t>glucose</t>
@@ -404,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,19 +453,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>0.3773757552544812</v>
       </c>
       <c r="E2">
-        <v>0.3035232561404679</v>
+        <v>0.3191324925820888</v>
       </c>
       <c r="F2">
-        <v>0.3691495941262996</v>
+        <v>0.3808063083186891</v>
       </c>
       <c r="G2">
-        <v>0.4397660820338303</v>
+        <v>0.4497009690949634</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -461,19 +476,19 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>0.3279387553607261</v>
       </c>
       <c r="E3">
-        <v>0.2986835589741011</v>
+        <v>0.2675825798610577</v>
       </c>
       <c r="F3">
-        <v>0.4490965201392953</v>
+        <v>0.3438958167613255</v>
       </c>
       <c r="G3">
-        <v>0.5474659678131416</v>
+        <v>0.4220384121596584</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,19 +499,19 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>0.3051962664141553</v>
       </c>
       <c r="E4">
-        <v>0.2074379822459916</v>
+        <v>0.2186179126739445</v>
       </c>
       <c r="F4">
-        <v>0.2839173656653636</v>
+        <v>0.300263283322437</v>
       </c>
       <c r="G4">
-        <v>0.3792403460971491</v>
+        <v>0.4023702333649347</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -507,19 +522,479 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>0.2741193939954751</v>
       </c>
       <c r="E5">
-        <v>0.2133314647640709</v>
+        <v>0.2218501222287655</v>
       </c>
       <c r="F5">
-        <v>0.2700027818578467</v>
+        <v>0.2804807123891958</v>
       </c>
       <c r="G5">
-        <v>0.3426144743321966</v>
+        <v>0.3549446794104015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>0.3973368133518245</v>
+      </c>
+      <c r="E6">
+        <v>0.333875553340639</v>
+      </c>
+      <c r="F6">
+        <v>0.3990927681087503</v>
+      </c>
+      <c r="G6">
+        <v>0.4602584744163885</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>0.3443103217704628</v>
+      </c>
+      <c r="E7">
+        <v>0.2868892786856611</v>
+      </c>
+      <c r="F7">
+        <v>0.3649891986739562</v>
+      </c>
+      <c r="G7">
+        <v>0.446622664482466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>0.292715831684016</v>
+      </c>
+      <c r="E8">
+        <v>0.2047536043211497</v>
+      </c>
+      <c r="F8">
+        <v>0.2890529475447424</v>
+      </c>
+      <c r="G8">
+        <v>0.3879525241622085</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>0.2920422115569329</v>
+      </c>
+      <c r="E9">
+        <v>0.232687263076832</v>
+      </c>
+      <c r="F9">
+        <v>0.2941868375553094</v>
+      </c>
+      <c r="G9">
+        <v>0.3712561467716375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>0.3506570706914444</v>
+      </c>
+      <c r="E10">
+        <v>0.3052924792317718</v>
+      </c>
+      <c r="F10">
+        <v>0.3451171416907443</v>
+      </c>
+      <c r="G10">
+        <v>0.391921209737263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>0.3194075993425055</v>
+      </c>
+      <c r="E11">
+        <v>0.2568642282824097</v>
+      </c>
+      <c r="F11">
+        <v>0.3045514708521935</v>
+      </c>
+      <c r="G11">
+        <v>0.3474373935139277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>0.2965973396326199</v>
+      </c>
+      <c r="E12">
+        <v>0.2225846420679785</v>
+      </c>
+      <c r="F12">
+        <v>0.2844481721241265</v>
+      </c>
+      <c r="G12">
+        <v>0.3570087682652223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>0.2271264065452113</v>
+      </c>
+      <c r="E13">
+        <v>0.1850298536894549</v>
+      </c>
+      <c r="F13">
+        <v>0.2145288495107807</v>
+      </c>
+      <c r="G13">
+        <v>0.2414938922532515</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>0.3502066907005226</v>
+      </c>
+      <c r="E14">
+        <v>0.3042071263067022</v>
+      </c>
+      <c r="F14">
+        <v>0.3427883977654188</v>
+      </c>
+      <c r="G14">
+        <v>0.3909404150645941</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>0.3248548796080984</v>
+      </c>
+      <c r="E15">
+        <v>0.2587707557244771</v>
+      </c>
+      <c r="F15">
+        <v>0.3060479911488967</v>
+      </c>
+      <c r="G15">
+        <v>0.3490623960514763</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>0.295555702829478</v>
+      </c>
+      <c r="E16">
+        <v>0.2224656759781305</v>
+      </c>
+      <c r="F16">
+        <v>0.2834745887007675</v>
+      </c>
+      <c r="G16">
+        <v>0.3509037445883843</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>0.2269683929789373</v>
+      </c>
+      <c r="E17">
+        <v>0.1832449012968748</v>
+      </c>
+      <c r="F17">
+        <v>0.212910854510636</v>
+      </c>
+      <c r="G17">
+        <v>0.2405179996601772</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>0.3438881452050815</v>
+      </c>
+      <c r="E18">
+        <v>0.2970543867097722</v>
+      </c>
+      <c r="F18">
+        <v>0.3349517022331471</v>
+      </c>
+      <c r="G18">
+        <v>0.3822887310145999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>0.3021765143405588</v>
+      </c>
+      <c r="E19">
+        <v>0.230567434729785</v>
+      </c>
+      <c r="F19">
+        <v>0.2725397872369039</v>
+      </c>
+      <c r="G19">
+        <v>0.3119716572069575</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>0.2549335162478122</v>
+      </c>
+      <c r="E20">
+        <v>0.1834292294604317</v>
+      </c>
+      <c r="F20">
+        <v>0.2405152364371674</v>
+      </c>
+      <c r="G20">
+        <v>0.3036703187030709</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>0.2196972187501047</v>
+      </c>
+      <c r="E21">
+        <v>0.1729916604003097</v>
+      </c>
+      <c r="F21">
+        <v>0.2007824308187004</v>
+      </c>
+      <c r="G21">
+        <v>0.2257601759967591</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>0.3445929896908774</v>
+      </c>
+      <c r="E22">
+        <v>0.2989559137453427</v>
+      </c>
+      <c r="F22">
+        <v>0.336222668303168</v>
+      </c>
+      <c r="G22">
+        <v>0.3839974910471162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23">
+        <v>0.3094764764277027</v>
+      </c>
+      <c r="E23">
+        <v>0.2351592561679837</v>
+      </c>
+      <c r="F23">
+        <v>0.2776111636435339</v>
+      </c>
+      <c r="G23">
+        <v>0.3168040925156009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24">
+        <v>0.2536154474950039</v>
+      </c>
+      <c r="E24">
+        <v>0.1852879634450375</v>
+      </c>
+      <c r="F24">
+        <v>0.2415067663205321</v>
+      </c>
+      <c r="G24">
+        <v>0.3052569388356706</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <v>0.2207933400738113</v>
+      </c>
+      <c r="E25">
+        <v>0.1751879097383932</v>
+      </c>
+      <c r="F25">
+        <v>0.2038715894809934</v>
+      </c>
+      <c r="G25">
+        <v>0.2289550458884018</v>
       </c>
     </row>
   </sheetData>
